--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2699178.688323518</v>
+        <v>2795848.664807893</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095098</v>
+        <v>806345.8827095096</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>134.877687049794</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>206.1702321836829</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>94.99663482462171</v>
       </c>
       <c r="X4" t="n">
-        <v>99.90187484148926</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>111.1307895082147</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -950,16 +952,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>68.95462281481851</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1066,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>49.38957925603672</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>205.1332020905458</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>74.45403095317813</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>114.0029754731659</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>49.43931059510331</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>61.64114297001702</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1423,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589025</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247654</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>73.52893090448337</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>90.59906198540612</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1585,13 +1587,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247655</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1768,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>23.41928146220722</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>219.2255404478054</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>71.61148690776486</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2056,19 +2058,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>200.2678096782341</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2178,7 +2180,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2245,7 +2247,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.85990871385319</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>32.11800704394056</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>124.6244962612167</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>104.5267512967229</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2649,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>67.14052909610362</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>88.0186296332095</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>17.0818093163673</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>16.36787095232151</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3047,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3190,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>35.01416922375799</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>206.8508346478095</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292602</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,10 +3319,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3360,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3439,7 +3441,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>119.4918537124585</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>83.07566474975373</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3563,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3664,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>38.98046764946912</v>
+        <v>131.3536923180823</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247734</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>212.3811236327891</v>
+        <v>168.7309055946753</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>14.93937866358709</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>88.51856165784757</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>959.5129866402885</v>
+        <v>1341.294330781294</v>
       </c>
       <c r="C2" t="n">
-        <v>959.5129866402885</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2505.880313619631</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2287.245646591693</v>
+        <v>2312.718843550895</v>
       </c>
       <c r="U2" t="n">
-        <v>2033.483861229785</v>
+        <v>2058.957058188986</v>
       </c>
       <c r="V2" t="n">
-        <v>1702.420973886214</v>
+        <v>1727.894170845416</v>
       </c>
       <c r="W2" t="n">
-        <v>1349.6523186161</v>
+        <v>1727.894170845416</v>
       </c>
       <c r="X2" t="n">
-        <v>1349.6523186161</v>
+        <v>1727.894170845416</v>
       </c>
       <c r="Y2" t="n">
-        <v>959.5129866402885</v>
+        <v>1727.894170845416</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,16 +4409,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>404.8646000824888</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>409.5384547146243</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>154.8539665087374</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W4" t="n">
-        <v>154.8539665087374</v>
+        <v>404.8646000824888</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>404.8646000824888</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>404.8646000824888</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1515.02307474038</v>
+        <v>1322.340737411353</v>
       </c>
       <c r="C5" t="n">
-        <v>1146.060557799969</v>
+        <v>1322.340737411353</v>
       </c>
       <c r="D5" t="n">
-        <v>787.7948591932184</v>
+        <v>1322.340737411353</v>
       </c>
       <c r="E5" t="n">
-        <v>402.0066065949742</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
@@ -4568,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4598,19 +4600,19 @@
         <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>1971.274048960885</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>1901.622914804502</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X5" t="n">
-        <v>1901.622914804502</v>
+        <v>1322.340737411353</v>
       </c>
       <c r="Y5" t="n">
-        <v>1901.622914804502</v>
+        <v>1322.340737411353</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4665,22 +4667,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>272.8312459770186</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>272.8312459770186</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>272.8312459770186</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>272.8312459770186</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>272.8312459770186</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>103.831445715351</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V7" t="n">
-        <v>500.820796875036</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W7" t="n">
-        <v>500.820796875036</v>
+        <v>261.1482364572794</v>
       </c>
       <c r="X7" t="n">
-        <v>272.8312459770186</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>272.8312459770186</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1317.778685247039</v>
+        <v>847.8148076117927</v>
       </c>
       <c r="C8" t="n">
-        <v>1317.778685247039</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2566.914309676818</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2348.279642648881</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2094.517857286973</v>
+        <v>2350.78839318292</v>
       </c>
       <c r="V8" t="n">
-        <v>2094.517857286973</v>
+        <v>2350.78839318292</v>
       </c>
       <c r="W8" t="n">
-        <v>2094.517857286973</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="X8" t="n">
-        <v>2094.517857286973</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="Y8" t="n">
-        <v>1704.378525311161</v>
+        <v>1234.414647675914</v>
       </c>
     </row>
     <row r="9">
@@ -4884,19 +4886,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.5382038240415</v>
+        <v>488.3016257164451</v>
       </c>
       <c r="C10" t="n">
-        <v>149.5382038240415</v>
+        <v>488.3016257164451</v>
       </c>
       <c r="D10" t="n">
-        <v>149.5382038240415</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610022</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W10" t="n">
-        <v>149.5382038240415</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X10" t="n">
-        <v>149.5382038240415</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y10" t="n">
-        <v>149.5382038240415</v>
+        <v>488.3016257164451</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5030,46 +5032,46 @@
         <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427193</v>
+        <v>939.1634975427196</v>
       </c>
       <c r="L11" t="n">
-        <v>1390.197710791128</v>
+        <v>1803.682313196075</v>
       </c>
       <c r="M11" t="n">
-        <v>2368.748013620956</v>
+        <v>2497.450077968864</v>
       </c>
       <c r="N11" t="n">
-        <v>2915.526830679739</v>
+        <v>3044.228895027646</v>
       </c>
       <c r="O11" t="n">
-        <v>3757.393206660291</v>
+        <v>3547.201365906983</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353929</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862917</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
         <v>4208.252829604874</v>
@@ -5081,10 +5083,10 @@
         <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5096,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089881</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
         <v>794.200663232024</v>
@@ -5130,34 +5132,34 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
         <v>1346.568408282341</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>727.6246893481002</v>
+        <v>656.5883407921841</v>
       </c>
       <c r="C13" t="n">
-        <v>727.6246893481002</v>
+        <v>487.6521578642772</v>
       </c>
       <c r="D13" t="n">
-        <v>577.5080499357645</v>
+        <v>337.5355184519415</v>
       </c>
       <c r="E13" t="n">
-        <v>577.5080499357645</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F13" t="n">
-        <v>430.6181024378541</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689057</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258583</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384227</v>
+        <v>1355.643526557402</v>
       </c>
       <c r="V13" t="n">
-        <v>909.27315417834</v>
+        <v>1355.643526557402</v>
       </c>
       <c r="W13" t="n">
-        <v>909.27315417834</v>
+        <v>1066.226356520441</v>
       </c>
       <c r="X13" t="n">
-        <v>909.27315417834</v>
+        <v>838.2368056224238</v>
       </c>
       <c r="Y13" t="n">
-        <v>909.27315417834</v>
+        <v>838.2368056224238</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5261,13 +5263,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5276,22 +5278,22 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>864.5728002389878</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1729.091615892342</v>
+        <v>1682.725100522031</v>
       </c>
       <c r="M14" t="n">
-        <v>2707.641918722171</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N14" t="n">
-        <v>3254.420735780953</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.39320666029</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
         <v>4470.748294107236</v>
@@ -5318,10 +5320,10 @@
         <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,70 +5333,70 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089881</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282341</v>
@@ -5410,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>489.220537824527</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="C16" t="n">
-        <v>489.220537824527</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="D16" t="n">
         <v>339.1038984121913</v>
@@ -5428,16 +5430,16 @@
         <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5449,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.657581931529</v>
+        <v>1842.857169001416</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.657581931529</v>
+        <v>1621.090553570943</v>
       </c>
       <c r="U16" t="n">
-        <v>1475.554715057173</v>
+        <v>1331.987686696586</v>
       </c>
       <c r="V16" t="n">
-        <v>1220.870226851286</v>
+        <v>1077.303198490699</v>
       </c>
       <c r="W16" t="n">
-        <v>931.4530568143252</v>
+        <v>787.8860284537387</v>
       </c>
       <c r="X16" t="n">
-        <v>710.0131169680571</v>
+        <v>559.8964775557214</v>
       </c>
       <c r="Y16" t="n">
-        <v>489.220537824527</v>
+        <v>339.1038984121913</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5498,67 +5500,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427193</v>
+        <v>913.1101661838559</v>
       </c>
       <c r="L17" t="n">
-        <v>1803.682313196074</v>
+        <v>1364.144379432264</v>
       </c>
       <c r="M17" t="n">
-        <v>2337.214217867998</v>
+        <v>1897.676284104189</v>
       </c>
       <c r="N17" t="n">
-        <v>2883.99303492678</v>
+        <v>2877.428556330835</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.393206660291</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5591,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390117</v>
@@ -5613,7 +5615,7 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>464.9024566190091</v>
+        <v>637.1336314069201</v>
       </c>
       <c r="C19" t="n">
-        <v>392.5676213586405</v>
+        <v>637.1336314069201</v>
       </c>
       <c r="D19" t="n">
-        <v>242.4509819463048</v>
+        <v>487.0169919945844</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K19" t="n">
         <v>344.6708498442063</v>
@@ -5695,28 +5697,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258583</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384227</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V19" t="n">
-        <v>1163.957642384227</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W19" t="n">
-        <v>874.5404723472661</v>
+        <v>1085.915761448467</v>
       </c>
       <c r="X19" t="n">
-        <v>646.5509214492488</v>
+        <v>857.9262105504503</v>
       </c>
       <c r="Y19" t="n">
-        <v>646.5509214492488</v>
+        <v>637.1336314069201</v>
       </c>
     </row>
     <row r="20">
@@ -5726,55 +5728,55 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427191</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M20" t="n">
-        <v>2016.310259422545</v>
+        <v>1923.729615463052</v>
       </c>
       <c r="N20" t="n">
-        <v>2996.062531649191</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O20" t="n">
-        <v>3692.333950986038</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
         <v>4667.761053946815</v>
@@ -5783,19 +5785,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089881</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>499.3208352874786</v>
+        <v>659.8526275526848</v>
       </c>
       <c r="C22" t="n">
-        <v>330.3846523595718</v>
+        <v>490.9164446247779</v>
       </c>
       <c r="D22" t="n">
-        <v>180.268012947236</v>
+        <v>340.7998052124422</v>
       </c>
       <c r="E22" t="n">
-        <v>180.268012947236</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F22" t="n">
-        <v>180.268012947236</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G22" t="n">
-        <v>180.268012947236</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
         <v>344.6708498442063</v>
@@ -5935,25 +5937,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689057</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258583</v>
+        <v>1834.070577504715</v>
       </c>
       <c r="U22" t="n">
-        <v>1453.060509258583</v>
+        <v>1544.967710630359</v>
       </c>
       <c r="V22" t="n">
-        <v>1198.376021052696</v>
+        <v>1290.283222424472</v>
       </c>
       <c r="W22" t="n">
-        <v>908.9588510157357</v>
+        <v>1290.283222424472</v>
       </c>
       <c r="X22" t="n">
-        <v>680.9693001177184</v>
+        <v>1062.293671526455</v>
       </c>
       <c r="Y22" t="n">
-        <v>680.9693001177184</v>
+        <v>841.5010923829245</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5977,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551621</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001584</v>
@@ -5990,22 +5992,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427191</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1729.091615892342</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2707.641918722171</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N23" t="n">
-        <v>3254.420735780953</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O23" t="n">
-        <v>3757.39320666029</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q23" t="n">
         <v>4719.034655862918</v>
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3154.542034367489</v>
+        <v>3154.542034367488</v>
       </c>
       <c r="C24" t="n">
-        <v>2980.089005086362</v>
+        <v>2980.089005086361</v>
       </c>
       <c r="D24" t="n">
-        <v>2831.154595425111</v>
+        <v>2831.15459542511</v>
       </c>
       <c r="E24" t="n">
-        <v>2671.917140419655</v>
+        <v>2671.917140419654</v>
       </c>
       <c r="F24" t="n">
-        <v>2525.38258244654</v>
+        <v>2525.382582446538</v>
       </c>
       <c r="G24" t="n">
-        <v>2389.019482279158</v>
+        <v>2389.019482279157</v>
       </c>
       <c r="H24" t="n">
         <v>2298.517587917025</v>
@@ -6072,16 +6074,16 @@
         <v>2611.451764789527</v>
       </c>
       <c r="L24" t="n">
-        <v>2978.149925102192</v>
+        <v>2978.149925102193</v>
       </c>
       <c r="M24" t="n">
-        <v>3425.426250324508</v>
+        <v>3425.426250324509</v>
       </c>
       <c r="N24" t="n">
-        <v>3898.949293878963</v>
+        <v>3898.949293878964</v>
       </c>
       <c r="O24" t="n">
-        <v>4309.910573297017</v>
+        <v>4309.910573297018</v>
       </c>
       <c r="P24" t="n">
         <v>4620.41016477312</v>
@@ -6090,16 +6092,16 @@
         <v>4778.05172241972</v>
       </c>
       <c r="R24" t="n">
-        <v>4777.907369012237</v>
+        <v>4777.907369012236</v>
       </c>
       <c r="S24" t="n">
-        <v>4648.469482505717</v>
+        <v>4648.469482505716</v>
       </c>
       <c r="T24" t="n">
-        <v>4455.826482183572</v>
+        <v>4455.826482183571</v>
       </c>
       <c r="U24" t="n">
-        <v>4227.758635317988</v>
+        <v>4227.758635317987</v>
       </c>
       <c r="V24" t="n">
         <v>3992.606527086245</v>
@@ -6108,10 +6110,10 @@
         <v>3738.369170358043</v>
       </c>
       <c r="X24" t="n">
-        <v>3530.517670152511</v>
+        <v>3530.51767015251</v>
       </c>
       <c r="Y24" t="n">
-        <v>3322.757371387557</v>
+        <v>3322.757371387556</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3563.401318704851</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="C25" t="n">
-        <v>3563.401318704851</v>
+        <v>830.1674284929057</v>
       </c>
       <c r="D25" t="n">
-        <v>3413.284679292516</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E25" t="n">
-        <v>3413.284679292516</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F25" t="n">
-        <v>3266.394731794605</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G25" t="n">
-        <v>3160.812154727209</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>4778.05172241972</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>4556.285106989246</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>4556.285106989246</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>4301.600618783359</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>4012.183448746398</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="X25" t="n">
-        <v>3784.193897848381</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="Y25" t="n">
-        <v>3563.401318704851</v>
+        <v>999.1036114208126</v>
       </c>
     </row>
     <row r="26">
@@ -6203,67 +6205,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427193</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2368.748013620956</v>
+        <v>2439.038619608515</v>
       </c>
       <c r="N26" t="n">
-        <v>3044.228895027648</v>
+        <v>2985.817436667297</v>
       </c>
       <c r="O26" t="n">
-        <v>3547.201365906985</v>
+        <v>3865.782086996752</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.556453353931</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
         <v>3150.95552873011</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973187</v>
+        <v>3154.542034367488</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161917</v>
+        <v>2980.089005086361</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549405</v>
+        <v>2831.15459542511</v>
       </c>
       <c r="E27" t="n">
-        <v>487.967878549485</v>
+        <v>2671.917140419654</v>
       </c>
       <c r="F27" t="n">
-        <v>341.43332057637</v>
+        <v>2525.382582446539</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089881</v>
+        <v>2389.019482279157</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468556</v>
+        <v>2298.517587917024</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>2279.510296318562</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>2373.187565809179</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>2611.451764789527</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>2978.149925102192</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.426250324508</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>3898.949293878963</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>4309.910573297017</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>4620.41016477312</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549551</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>4777.907369012236</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>4648.469482505716</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313402</v>
+        <v>4455.826482183571</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>4227.758635317987</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216075</v>
+        <v>3992.606527086244</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487873</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>3530.51767015251</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>3322.757371387556</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3626.544724347219</v>
+        <v>500.2948715744233</v>
       </c>
       <c r="C28" t="n">
-        <v>3626.544724347219</v>
+        <v>331.3586886465164</v>
       </c>
       <c r="D28" t="n">
-        <v>3476.428084934884</v>
+        <v>331.3586886465164</v>
       </c>
       <c r="E28" t="n">
-        <v>3328.514991352491</v>
+        <v>331.3586886465164</v>
       </c>
       <c r="F28" t="n">
-        <v>3328.514991352491</v>
+        <v>184.468741148606</v>
       </c>
       <c r="G28" t="n">
-        <v>3160.812154727209</v>
+        <v>184.468741148606</v>
       </c>
       <c r="H28" t="n">
-        <v>3014.594967945067</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>4688.221265177249</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>4466.454649746775</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U28" t="n">
-        <v>4466.454649746775</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V28" t="n">
-        <v>4211.770161540888</v>
+        <v>1420.142636483171</v>
       </c>
       <c r="W28" t="n">
-        <v>3922.352991503927</v>
+        <v>1130.72546644621</v>
       </c>
       <c r="X28" t="n">
-        <v>3694.36344060591</v>
+        <v>902.7359155481931</v>
       </c>
       <c r="Y28" t="n">
-        <v>3694.36344060591</v>
+        <v>681.943336404663</v>
       </c>
     </row>
     <row r="29">
@@ -6452,46 +6454,46 @@
         <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>780.0246918018177</v>
+        <v>625.8141267662568</v>
       </c>
       <c r="L29" t="n">
-        <v>1231.058905050226</v>
+        <v>1076.848340014666</v>
       </c>
       <c r="M29" t="n">
-        <v>2209.609207880055</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N29" t="n">
-        <v>3189.361480106701</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O29" t="n">
-        <v>3692.333950986038</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P29" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
         <v>4208.252829604874</v>
@@ -6516,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6573,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3666.5180733378</v>
+        <v>3230.8090806558</v>
       </c>
       <c r="C31" t="n">
-        <v>3497.581890409893</v>
+        <v>3230.8090806558</v>
       </c>
       <c r="D31" t="n">
-        <v>3347.465250997557</v>
+        <v>3080.692441243464</v>
       </c>
       <c r="E31" t="n">
-        <v>3199.552157415164</v>
+        <v>3080.692441243464</v>
       </c>
       <c r="F31" t="n">
-        <v>3182.297804570348</v>
+        <v>2933.802493745554</v>
       </c>
       <c r="G31" t="n">
-        <v>3014.594967945067</v>
+        <v>2933.802493745554</v>
       </c>
       <c r="H31" t="n">
-        <v>3014.594967945067</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763413</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210348</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159224</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.93890460772</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207269</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913134</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833547</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267206</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R31" t="n">
-        <v>4778.051722419721</v>
+        <v>4688.221265177248</v>
       </c>
       <c r="S31" t="n">
-        <v>4586.365838246547</v>
+        <v>4688.221265177248</v>
       </c>
       <c r="T31" t="n">
-        <v>4586.365838246547</v>
+        <v>4466.454649746774</v>
       </c>
       <c r="U31" t="n">
-        <v>4586.365838246547</v>
+        <v>4177.351782872417</v>
       </c>
       <c r="V31" t="n">
-        <v>4586.365838246547</v>
+        <v>3922.66729466653</v>
       </c>
       <c r="W31" t="n">
-        <v>4296.948668209587</v>
+        <v>3633.25012462957</v>
       </c>
       <c r="X31" t="n">
-        <v>4068.95911731157</v>
+        <v>3633.25012462957</v>
       </c>
       <c r="Y31" t="n">
-        <v>3848.16653816804</v>
+        <v>3412.45754548604</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6688,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551621</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839441</v>
@@ -6701,16 +6703,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972662</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M32" t="n">
-        <v>2383.057343890769</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N32" t="n">
-        <v>3362.809616117415</v>
+        <v>2985.817436667297</v>
       </c>
       <c r="O32" t="n">
         <v>3865.782086996752</v>
@@ -6753,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E33" t="n">
         <v>487.9678785494859</v>
@@ -6777,28 +6779,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>827.5554641779659</v>
+        <v>3513.029278938273</v>
       </c>
       <c r="C34" t="n">
-        <v>658.619281250059</v>
+        <v>3344.093096010366</v>
       </c>
       <c r="D34" t="n">
-        <v>508.5026418377232</v>
+        <v>3344.093096010366</v>
       </c>
       <c r="E34" t="n">
-        <v>360.5895482553301</v>
+        <v>3196.180002427973</v>
       </c>
       <c r="F34" t="n">
-        <v>360.5895482553301</v>
+        <v>3196.180002427973</v>
       </c>
       <c r="G34" t="n">
-        <v>192.8867116300491</v>
+        <v>3160.812154727208</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="J34" t="n">
-        <v>140.6836668953299</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104703</v>
+        <v>4688.221265177248</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104703</v>
+        <v>4688.221265177248</v>
       </c>
       <c r="T34" t="n">
-        <v>1956.343466104703</v>
+        <v>4466.454649746774</v>
       </c>
       <c r="U34" t="n">
-        <v>1747.403229086714</v>
+        <v>4177.351782872417</v>
       </c>
       <c r="V34" t="n">
-        <v>1747.403229086714</v>
+        <v>3922.66729466653</v>
       </c>
       <c r="W34" t="n">
-        <v>1457.986059049753</v>
+        <v>3922.66729466653</v>
       </c>
       <c r="X34" t="n">
-        <v>1229.996508151736</v>
+        <v>3694.677743768513</v>
       </c>
       <c r="Y34" t="n">
-        <v>1009.203929008206</v>
+        <v>3694.677743768513</v>
       </c>
     </row>
     <row r="35">
@@ -6911,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551621</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L35" t="n">
-        <v>1069.293752345675</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M35" t="n">
-        <v>2047.844055175503</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N35" t="n">
-        <v>2667.236715577531</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O35" t="n">
-        <v>3547.201365906985</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P35" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
         <v>4719.034655862919</v>
@@ -6965,22 +6967,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -7005,7 +7007,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7014,28 +7016,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3502.677556432736</v>
+        <v>3548.711351396903</v>
       </c>
       <c r="C37" t="n">
-        <v>3502.677556432736</v>
+        <v>3379.775168468997</v>
       </c>
       <c r="D37" t="n">
-        <v>3352.560917020401</v>
+        <v>3379.775168468997</v>
       </c>
       <c r="E37" t="n">
-        <v>3352.560917020401</v>
+        <v>3231.862074886603</v>
       </c>
       <c r="F37" t="n">
-        <v>3205.67096952249</v>
+        <v>3084.972127388693</v>
       </c>
       <c r="G37" t="n">
-        <v>3037.968132897209</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="H37" t="n">
-        <v>2917.269290763413</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763413</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J37" t="n">
         <v>2962.391923210348</v>
@@ -7117,28 +7119,28 @@
         <v>4778.051722419721</v>
       </c>
       <c r="R37" t="n">
-        <v>4688.221265177249</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S37" t="n">
-        <v>4496.535381004075</v>
+        <v>4586.365838246547</v>
       </c>
       <c r="T37" t="n">
-        <v>4274.768765573601</v>
+        <v>4502.451025368008</v>
       </c>
       <c r="U37" t="n">
-        <v>4274.768765573601</v>
+        <v>4502.451025368008</v>
       </c>
       <c r="V37" t="n">
-        <v>4020.084277367714</v>
+        <v>4247.766537162121</v>
       </c>
       <c r="W37" t="n">
-        <v>3730.667107330753</v>
+        <v>3958.349367125161</v>
       </c>
       <c r="X37" t="n">
-        <v>3502.677556432736</v>
+        <v>3730.359816227143</v>
       </c>
       <c r="Y37" t="n">
-        <v>3502.677556432736</v>
+        <v>3730.359816227143</v>
       </c>
     </row>
     <row r="38">
@@ -7151,22 +7153,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
@@ -7175,22 +7177,22 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M38" t="n">
-        <v>2216.257005193957</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N38" t="n">
-        <v>3196.009277420604</v>
+        <v>2730.494725501681</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3610.459375831136</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4323.814463278081</v>
       </c>
       <c r="Q38" t="n">
         <v>4719.034655862919</v>
@@ -7211,7 +7213,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>658.8294814682021</v>
+        <v>3381.008514771622</v>
       </c>
       <c r="C40" t="n">
-        <v>489.8932985402952</v>
+        <v>3212.072331843715</v>
       </c>
       <c r="D40" t="n">
-        <v>339.7766591279594</v>
+        <v>3212.072331843715</v>
       </c>
       <c r="E40" t="n">
-        <v>339.7766591279594</v>
+        <v>3064.159238261322</v>
       </c>
       <c r="F40" t="n">
-        <v>192.8867116300491</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="G40" t="n">
-        <v>192.8867116300491</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J40" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P40" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S40" t="n">
-        <v>1827.138799115293</v>
+        <v>4555.540767886257</v>
       </c>
       <c r="T40" t="n">
-        <v>1605.372183684819</v>
+        <v>4555.540767886257</v>
       </c>
       <c r="U40" t="n">
-        <v>1605.372183684819</v>
+        <v>4555.540767886257</v>
       </c>
       <c r="V40" t="n">
-        <v>1350.687695478932</v>
+        <v>4300.85627968037</v>
       </c>
       <c r="W40" t="n">
-        <v>1061.270525441972</v>
+        <v>4011.439109643409</v>
       </c>
       <c r="X40" t="n">
-        <v>1061.270525441972</v>
+        <v>3783.449558745392</v>
       </c>
       <c r="Y40" t="n">
-        <v>840.4779462984418</v>
+        <v>3562.656979601862</v>
       </c>
     </row>
     <row r="41">
@@ -7409,46 +7411,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427194</v>
+        <v>901.0652231938157</v>
       </c>
       <c r="L41" t="n">
-        <v>1390.197710791128</v>
+        <v>1352.099436442224</v>
       </c>
       <c r="M41" t="n">
-        <v>2368.748013620957</v>
+        <v>2330.649739272053</v>
       </c>
       <c r="N41" t="n">
-        <v>3254.420735780954</v>
+        <v>2877.428556330835</v>
       </c>
       <c r="O41" t="n">
-        <v>3757.393206660291</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>2611.451764789528</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>637.1336314069201</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C43" t="n">
-        <v>637.1336314069201</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D43" t="n">
-        <v>487.0169919945844</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E43" t="n">
-        <v>339.1038984121913</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7597,22 +7599,22 @@
         <v>1866.513008862232</v>
       </c>
       <c r="T43" t="n">
-        <v>1866.513008862232</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U43" t="n">
-        <v>1577.410141987875</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="V43" t="n">
-        <v>1322.725653781988</v>
+        <v>1390.061905225871</v>
       </c>
       <c r="W43" t="n">
-        <v>1033.308483745028</v>
+        <v>1100.64473518891</v>
       </c>
       <c r="X43" t="n">
-        <v>818.7820962371599</v>
+        <v>930.2094770124706</v>
       </c>
       <c r="Y43" t="n">
-        <v>818.7820962371599</v>
+        <v>709.4168978689405</v>
       </c>
     </row>
     <row r="44">
@@ -7622,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>634.8921067227643</v>
+        <v>786.6724891157196</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.926319971173</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M44" t="n">
-        <v>2064.476622801002</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N44" t="n">
-        <v>3044.228895027648</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O44" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
         <v>4719.034655862919</v>
@@ -7673,25 +7675,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468568</v>
@@ -7725,19 +7727,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390116</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7746,7 +7748,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7755,22 +7757,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>826.5323180934831</v>
+        <v>629.893403484314</v>
       </c>
       <c r="C46" t="n">
-        <v>657.5961351655762</v>
+        <v>629.893403484314</v>
       </c>
       <c r="D46" t="n">
-        <v>507.4794957532405</v>
+        <v>479.7767640719783</v>
       </c>
       <c r="E46" t="n">
-        <v>507.4794957532405</v>
+        <v>331.8636704895852</v>
       </c>
       <c r="F46" t="n">
-        <v>360.5895482553301</v>
+        <v>184.9737229916748</v>
       </c>
       <c r="G46" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7831,25 +7833,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T46" t="n">
-        <v>1674.827124689058</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U46" t="n">
-        <v>1385.724257814702</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V46" t="n">
-        <v>1131.039769608815</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W46" t="n">
-        <v>841.6225995718539</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="X46" t="n">
-        <v>841.6225995718539</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="Y46" t="n">
-        <v>841.6225995718539</v>
+        <v>811.5418683145538</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8547,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8693,22 +8695,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>161.8544041422874</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>342.3170758598136</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8924,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>79.70465870845317</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>295.4822118493972</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9161,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>128.7323010770068</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>374.1693948021965</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9401,25 +9403,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="O20" t="n">
-        <v>195.2514630883936</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9638,25 +9640,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>342.3170758598127</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>105.1996354507088</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9881,16 +9883,16 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>351.4175304294029</v>
       </c>
       <c r="N26" t="n">
-        <v>130.0020851999088</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -10112,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>163.3991441460116</v>
+        <v>7.630896635343902</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10121,16 +10123,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10349,19 +10351,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>370.4516004729533</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>71.00061210864408</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10595,7 +10597,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>73.34731650832828</v>
+        <v>116.5656919961586</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10604,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10823,25 +10825,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>126.3855966773243</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>148.4180109385407</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11057,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>116.5656919961579</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11069,10 +11071,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>342.3170758598129</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11294,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>16.80057335908884</v>
+        <v>1.01747575565679</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11309,13 +11311,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>72.9050317420858</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>75.4267462736221</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23656,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>166.3497438692347</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>6.484114941231752</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>95.63533419086298</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>86.2551886583569</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24144,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>60.89510620046759</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>187.4309422322286</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24366,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>23.99097675699562</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>61.49905696230533</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>112.6914510858337</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>56.73638528111128</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>128.3392387065639</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>128.3871439619993</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>131.0116390352702</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>79.3610035578034</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>25.26316120186229</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>136.4732845264155</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -25552,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>150.7885576819728</v>
+        <v>58.41533301335963</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,10 +25839,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>13.32853175624808</v>
+        <v>56.97874979436187</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>164.8926015183502</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>77.50724660118065</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>775282.0891526799</v>
+        <v>775282.08915268</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>775282.0891526799</v>
+        <v>775282.08915268</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>775282.08915268</v>
+        <v>775282.0891526799</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>775282.08915268</v>
+        <v>775282.0891526798</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>775282.08915268</v>
+        <v>775282.0891526799</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>775282.08915268</v>
+        <v>775282.0891526799</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>775282.0891526799</v>
+        <v>775282.0891526798</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>775282.0891526799</v>
+        <v>775282.08915268</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914265</v>
+      </c>
+      <c r="C2" t="n">
         <v>656833.4158914267</v>
-      </c>
-      <c r="C2" t="n">
-        <v>656833.4158914266</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
+        <v>635330.8590191728</v>
+      </c>
+      <c r="F2" t="n">
+        <v>635330.8590191728</v>
+      </c>
+      <c r="G2" t="n">
+        <v>635330.8590191728</v>
+      </c>
+      <c r="H2" t="n">
         <v>635330.8590191727</v>
       </c>
-      <c r="F2" t="n">
-        <v>635330.8590191724</v>
-      </c>
-      <c r="G2" t="n">
-        <v>635330.8590191726</v>
-      </c>
-      <c r="H2" t="n">
-        <v>635330.8590191725</v>
-      </c>
       <c r="I2" t="n">
-        <v>635330.8590191728</v>
+        <v>635330.859019173</v>
       </c>
       <c r="J2" t="n">
         <v>635330.8590191728</v>
       </c>
       <c r="K2" t="n">
-        <v>635330.8590191726</v>
+        <v>635330.8590191728</v>
       </c>
       <c r="L2" t="n">
+        <v>635330.859019173</v>
+      </c>
+      <c r="M2" t="n">
+        <v>635330.859019173</v>
+      </c>
+      <c r="N2" t="n">
+        <v>635330.8590191728</v>
+      </c>
+      <c r="O2" t="n">
         <v>635330.8590191727</v>
       </c>
-      <c r="M2" t="n">
-        <v>635330.8590191732</v>
-      </c>
-      <c r="N2" t="n">
-        <v>635330.8590191731</v>
-      </c>
-      <c r="O2" t="n">
-        <v>635330.859019173</v>
-      </c>
       <c r="P2" t="n">
-        <v>635330.859019173</v>
+        <v>635330.8590191728</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26418,43 +26420,43 @@
         <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
+        <v>192206.5963924298</v>
+      </c>
+      <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
-      <c r="D4" t="n">
-        <v>192206.5963924298</v>
-      </c>
       <c r="E4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709184</v>
       </c>
       <c r="F4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="G4" t="n">
         <v>21619.60799709188</v>
       </c>
-      <c r="G4" t="n">
-        <v>21619.6079970919</v>
-      </c>
       <c r="H4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="I4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="J4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="K4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="L4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="M4" t="n">
         <v>21619.60799709188</v>
       </c>
-      <c r="J4" t="n">
-        <v>21619.60799709189</v>
-      </c>
-      <c r="K4" t="n">
-        <v>21619.60799709189</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>21619.60799709188</v>
       </c>
-      <c r="M4" t="n">
-        <v>21619.60799709189</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>21619.60799709187</v>
-      </c>
-      <c r="O4" t="n">
-        <v>21619.60799709188</v>
       </c>
       <c r="P4" t="n">
         <v>21619.60799709188</v>
@@ -26500,7 +26502,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371366</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-208200.137778957</v>
+        <v>-208200.1377789571</v>
       </c>
       <c r="C6" t="n">
-        <v>381767.7414355874</v>
+        <v>381767.7414355875</v>
       </c>
       <c r="D6" t="n">
         <v>381767.7414355873</v>
       </c>
       <c r="E6" t="n">
-        <v>-210049.6812250395</v>
+        <v>-210049.6812250394</v>
       </c>
       <c r="F6" t="n">
-        <v>517327.7327683669</v>
+        <v>517327.7327683676</v>
       </c>
       <c r="G6" t="n">
-        <v>517327.732768367</v>
+        <v>517327.7327683674</v>
       </c>
       <c r="H6" t="n">
-        <v>517327.732768367</v>
+        <v>517327.7327683673</v>
       </c>
       <c r="I6" t="n">
         <v>517327.7327683674</v>
       </c>
       <c r="J6" t="n">
-        <v>340904.5135757743</v>
+        <v>340904.5135757744</v>
       </c>
       <c r="K6" t="n">
+        <v>517327.7327683674</v>
+      </c>
+      <c r="L6" t="n">
+        <v>517327.7327683675</v>
+      </c>
+      <c r="M6" t="n">
+        <v>387685.4179294226</v>
+      </c>
+      <c r="N6" t="n">
+        <v>517327.7327683673</v>
+      </c>
+      <c r="O6" t="n">
         <v>517327.7327683672</v>
       </c>
-      <c r="L6" t="n">
+      <c r="P6" t="n">
         <v>517327.7327683673</v>
-      </c>
-      <c r="M6" t="n">
-        <v>387685.4179294228</v>
-      </c>
-      <c r="N6" t="n">
-        <v>517327.7327683676</v>
-      </c>
-      <c r="O6" t="n">
-        <v>517327.7327683675</v>
-      </c>
-      <c r="P6" t="n">
-        <v>517327.7327683675</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,7 +26746,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762115</v>
+        <v>712.0330363762118</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>520.2256578503744</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>520.2256578503747</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>39.53802575917746</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>10.27808817397494</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27581,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>191.5263635119693</v>
       </c>
       <c r="X4" t="n">
-        <v>125.8077805475479</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>270.799580564047</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27670,16 +27672,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>280.2863459025945</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27786,10 +27788,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>106.7813095857584</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923383</v>
@@ -27816,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>20.57645329849132</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>99.9616818557934</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>137.2211920351234</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,10 +28016,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>96.99465205146586</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>156.9435103820778</v>
       </c>
     </row>
     <row r="11">
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32333,7 +32335,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32549,7 +32551,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34211,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,10 +35266,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M11" t="n">
-        <v>988.434649323059</v>
+        <v>700.7755199725143</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>850.3700767480326</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>416.8959452638535</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427824</v>
+        <v>751.0723262417293</v>
       </c>
       <c r="M14" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>465.9235876324071</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>882.2223956904155</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908542</v>
@@ -35981,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,25 +36123,25 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>685.3008529699235</v>
       </c>
       <c r="O20" t="n">
-        <v>703.3044639766126</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597769</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>797.9071902521447</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>644.1207512809356</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>890.3386462596296</v>
       </c>
       <c r="N26" t="n">
-        <v>682.3039206128201</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>500.5904307014119</v>
+        <v>344.8221831907444</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>909.3727163031798</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>623.3024475215556</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37239,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>625.6491519212395</v>
+        <v>668.8675274090701</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,25 +37545,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>665.3067125075511</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>399.2123157422602</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222478</v>
@@ -37777,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>453.7569785515583</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
@@ -37789,10 +37791,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>894.6189112727244</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -37859,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -38014,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>353.9918599144893</v>
+        <v>338.2087623110573</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
@@ -38029,13 +38031,13 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222478</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2795848.664807893</v>
+        <v>2790127.052840007</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.58283624</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095096</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>206.1702321836829</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>300.8915849827645</v>
       </c>
     </row>
     <row r="3">
@@ -819,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>89.13104591741157</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>94.99663482462171</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>111.1307895082147</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>11.10798889984626</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>205.1332020905458</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>397.8509874798048</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>114.0029754731659</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>89.06613335611762</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>61.64114297001702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1533,16 +1533,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>73.52893090448337</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>275.8104444169393</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653453</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>23.41928146220722</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>200.2678096782341</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T22" t="n">
-        <v>32.11800704394056</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>124.6244962612167</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>140.8993768737594</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710089</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>64.14647130913964</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>88.0186296332095</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>16.36787095232151</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>45.10723554369662</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>35.01416922375799</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653454</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>136.4346482350501</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>83.07566474975373</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>131.3536923180823</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>147.0633545968146</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>168.7309055946753</v>
+        <v>183.1114884161246</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4140,19 +4140,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>88.51856165784757</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>159.4886709662769</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1341.294330781294</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="C2" t="n">
-        <v>972.3318138408822</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D2" t="n">
-        <v>614.0661152341316</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2312.718843550895</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2058.957058188986</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1727.894170845416</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1727.894170845416</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1727.894170845416</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1727.894170845416</v>
+        <v>632.3182666762914</v>
       </c>
     </row>
     <row r="3">
@@ -4409,13 +4409,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>404.8646000824888</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="C4" t="n">
-        <v>235.9284171545819</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="D4" t="n">
-        <v>235.9284171545819</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="E4" t="n">
-        <v>235.9284171545819</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545819</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545819</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>404.8646000824888</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>404.8646000824888</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.8646000824888</v>
+        <v>470.7225141620388</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1322.340737411353</v>
+        <v>1359.546482223454</v>
       </c>
       <c r="C5" t="n">
-        <v>1322.340737411353</v>
+        <v>990.5839652830421</v>
       </c>
       <c r="D5" t="n">
-        <v>1322.340737411353</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4573,13 +4573,13 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4597,22 +4597,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2509.751412524467</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2509.751412524467</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.575150942547</v>
+        <v>2509.751412524467</v>
       </c>
       <c r="W5" t="n">
-        <v>1695.806495672433</v>
+        <v>2509.751412524467</v>
       </c>
       <c r="X5" t="n">
-        <v>1322.340737411353</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="Y5" t="n">
-        <v>1322.340737411353</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4667,22 +4667,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>261.1482364572794</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>847.8148076117927</v>
+        <v>2307.009759042411</v>
       </c>
       <c r="C8" t="n">
-        <v>478.8522906713811</v>
+        <v>1938.047242101999</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>1579.781543495249</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1193.993290897004</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>783.0073861073968</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2350.78839318292</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2350.78839318292</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1998.019737912806</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1624.553979651726</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y8" t="n">
-        <v>1234.414647675914</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>488.3016257164451</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C10" t="n">
-        <v>488.3016257164451</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D10" t="n">
-        <v>338.1849863041093</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>550.5654064942401</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X10" t="n">
-        <v>550.5654064942401</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y10" t="n">
-        <v>488.3016257164451</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5032,37 +5032,37 @@
         <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427196</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1803.682313196075</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2497.450077968864</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N11" t="n">
-        <v>3044.228895027646</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O11" t="n">
-        <v>3547.201365906983</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.556453353929</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862917</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R11" t="n">
         <v>4778.05172241972</v>
@@ -5083,10 +5083,10 @@
         <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D12" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F12" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
         <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5153,7 +5153,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>656.5883407921841</v>
+        <v>412.4103109586945</v>
       </c>
       <c r="C13" t="n">
-        <v>487.6521578642772</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D13" t="n">
-        <v>337.5355184519415</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E13" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G13" t="n">
         <v>95.56103444839441</v>
@@ -5205,13 +5205,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
         <v>1646.12566951853</v>
@@ -5232,19 +5232,19 @@
         <v>1644.746393431758</v>
       </c>
       <c r="U13" t="n">
-        <v>1355.643526557402</v>
+        <v>1366.149984929799</v>
       </c>
       <c r="V13" t="n">
-        <v>1355.643526557402</v>
+        <v>1111.465496723912</v>
       </c>
       <c r="W13" t="n">
-        <v>1066.226356520441</v>
+        <v>822.0483266869516</v>
       </c>
       <c r="X13" t="n">
-        <v>838.2368056224238</v>
+        <v>594.0587757889342</v>
       </c>
       <c r="Y13" t="n">
-        <v>838.2368056224238</v>
+        <v>594.0587757889342</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5278,25 +5278,25 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1682.725100522031</v>
+        <v>1586.925993846823</v>
       </c>
       <c r="M14" t="n">
-        <v>2216.257005193956</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420603</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862918</v>
@@ -5320,10 +5320,10 @@
         <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5375,22 +5375,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H16" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839441</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1842.857169001416</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T16" t="n">
-        <v>1621.090553570943</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U16" t="n">
-        <v>1331.987686696586</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V16" t="n">
-        <v>1077.303198490699</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W16" t="n">
-        <v>787.8860284537387</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X16" t="n">
-        <v>559.8964775557214</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y16" t="n">
-        <v>339.1038984121913</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5500,13 +5500,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551621</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5515,25 +5515,25 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>913.1101661838559</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1364.144379432264</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M17" t="n">
-        <v>1897.676284104189</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N17" t="n">
-        <v>2877.428556330835</v>
+        <v>2730.494725501681</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.39320666029</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q17" t="n">
         <v>4719.034655862918</v>
@@ -5551,16 +5551,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
@@ -5627,7 +5627,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>637.1336314069201</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C19" t="n">
-        <v>637.1336314069201</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D19" t="n">
-        <v>487.0169919945844</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.657581931529</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.890966501056</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>1288.206478295169</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>1085.915761448467</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>857.9262105504503</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>637.1336314069201</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5752,16 +5752,16 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427191</v>
+        <v>1070.832524924161</v>
       </c>
       <c r="L20" t="n">
-        <v>1390.197710791128</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M20" t="n">
-        <v>1923.729615463052</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N20" t="n">
         <v>2602.177459903276</v>
@@ -5785,19 +5785,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5864,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>659.8526275526848</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C22" t="n">
-        <v>490.9164446247779</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D22" t="n">
-        <v>340.7998052124422</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1866.513008862231</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T22" t="n">
-        <v>1834.070577504715</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>1544.967710630359</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>1290.283222424472</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>1290.283222424472</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>1062.293671526455</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>841.5010923829245</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,13 +5974,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5989,28 +5989,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M23" t="n">
-        <v>2120.457898518747</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N23" t="n">
-        <v>2667.23671557753</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O23" t="n">
-        <v>3547.201365906984</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6025,16 +6025,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>2525.382582446538</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>999.1036114208126</v>
+        <v>554.7329138614817</v>
       </c>
       <c r="C25" t="n">
-        <v>830.1674284929057</v>
+        <v>385.7967309335748</v>
       </c>
       <c r="D25" t="n">
-        <v>704.2840989361212</v>
+        <v>385.7967309335748</v>
       </c>
       <c r="E25" t="n">
-        <v>556.371005353728</v>
+        <v>237.8836373511817</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558177</v>
+        <v>237.8836373511817</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839441</v>
@@ -6183,16 +6183,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208126</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W25" t="n">
-        <v>999.1036114208126</v>
+        <v>964.3709295897388</v>
       </c>
       <c r="X25" t="n">
-        <v>999.1036114208126</v>
+        <v>736.3813786917215</v>
       </c>
       <c r="Y25" t="n">
-        <v>999.1036114208126</v>
+        <v>736.3813786917215</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749764</v>
@@ -6223,49 +6223,49 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2439.038619608515</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>2985.817436667297</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3865.782086996752</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
         <v>3150.95552873011</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>500.2948715744233</v>
+        <v>307.2453974100822</v>
       </c>
       <c r="C28" t="n">
-        <v>331.3586886465164</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D28" t="n">
-        <v>331.3586886465164</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E28" t="n">
-        <v>331.3586886465164</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F28" t="n">
-        <v>184.468741148606</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>184.468741148606</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1674.827124689058</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1674.827124689058</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1420.142636483171</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>1130.72546644621</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>902.7359155481931</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="Y28" t="n">
-        <v>681.943336404663</v>
+        <v>488.8938622403219</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>625.8141267662568</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1076.848340014666</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M29" t="n">
-        <v>2055.398642844494</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N29" t="n">
-        <v>2602.177459903276</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3230.8090806558</v>
+        <v>414.6138567886371</v>
       </c>
       <c r="C31" t="n">
-        <v>3230.8090806558</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D31" t="n">
-        <v>3080.692441243464</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>3080.692441243464</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>2933.802493745554</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>2933.802493745554</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>4688.221265177248</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>4688.221265177248</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>4466.454649746774</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>4177.351782872417</v>
+        <v>1407.497645073032</v>
       </c>
       <c r="V31" t="n">
-        <v>3922.66729466653</v>
+        <v>1152.813156867145</v>
       </c>
       <c r="W31" t="n">
-        <v>3633.25012462957</v>
+        <v>863.3959868301845</v>
       </c>
       <c r="X31" t="n">
-        <v>3633.25012462957</v>
+        <v>635.4064359321671</v>
       </c>
       <c r="Y31" t="n">
-        <v>3412.45754548604</v>
+        <v>414.6138567886371</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6700,28 +6700,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2368.748013620957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>2985.817436667297</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>3865.782086996752</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
         <v>4778.05172241972</v>
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
@@ -6782,10 +6782,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6812,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3513.029278938273</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>3344.093096010366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>3344.093096010366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>3196.180002427973</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>3196.180002427973</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>3160.812154727208</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>4688.221265177248</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T34" t="n">
-        <v>4466.454649746774</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>4177.351782872417</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>3922.66729466653</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>3922.66729466653</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>3694.677743768513</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>3694.677743768513</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6916,16 +6916,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6940,25 +6940,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1236.699401366028</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M35" t="n">
-        <v>2215.249704195857</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N35" t="n">
-        <v>2877.428556330836</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O35" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6967,16 +6967,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -7019,10 +7019,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3548.711351396903</v>
+        <v>817.4551465905729</v>
       </c>
       <c r="C37" t="n">
-        <v>3379.775168468997</v>
+        <v>648.518963662666</v>
       </c>
       <c r="D37" t="n">
-        <v>3379.775168468997</v>
+        <v>498.4023242503303</v>
       </c>
       <c r="E37" t="n">
-        <v>3231.862074886603</v>
+        <v>498.4023242503303</v>
       </c>
       <c r="F37" t="n">
-        <v>3084.972127388693</v>
+        <v>498.4023242503303</v>
       </c>
       <c r="G37" t="n">
-        <v>2917.269290763412</v>
+        <v>330.6994876250492</v>
       </c>
       <c r="H37" t="n">
-        <v>2917.269290763412</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>4586.365838246547</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>4502.451025368008</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>4502.451025368008</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>4247.766537162121</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W37" t="n">
-        <v>3958.349367125161</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="X37" t="n">
-        <v>3730.359816227143</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="Y37" t="n">
-        <v>3730.359816227143</v>
+        <v>999.1036114208126</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
@@ -7177,25 +7177,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1650.184003770974</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.715908442899</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N38" t="n">
-        <v>2730.494725501681</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O38" t="n">
-        <v>3610.459375831136</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4323.814463278081</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7207,19 +7207,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3381.008514771622</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>3212.072331843715</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>3212.072331843715</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>3064.159238261322</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>4555.540767886257</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>4555.540767886257</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U40" t="n">
-        <v>4555.540767886257</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V40" t="n">
-        <v>4300.85627968037</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>4011.439109643409</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>3783.449558745392</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>3562.656979601862</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>901.0652231938157</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1352.099436442224</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M41" t="n">
-        <v>2330.649739272053</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N41" t="n">
-        <v>2877.428556330835</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O41" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
         <v>4778.05172241972</v>
@@ -7444,19 +7444,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>709.4168978689405</v>
+        <v>411.3871648742116</v>
       </c>
       <c r="C43" t="n">
-        <v>540.4807149410336</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D43" t="n">
-        <v>390.3640755286979</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E43" t="n">
         <v>242.4509819463048</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1644.746393431758</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1644.746393431758</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V43" t="n">
-        <v>1390.061905225871</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W43" t="n">
-        <v>1100.64473518891</v>
+        <v>998.7893082582084</v>
       </c>
       <c r="X43" t="n">
-        <v>930.2094770124706</v>
+        <v>813.8282088479815</v>
       </c>
       <c r="Y43" t="n">
-        <v>709.4168978689405</v>
+        <v>593.0356297044514</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>786.6724891157196</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1237.706702364128</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M44" t="n">
-        <v>2216.257005193957</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N44" t="n">
-        <v>3196.009277420604</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7748,7 +7748,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7757,22 +7757,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>629.893403484314</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="C46" t="n">
-        <v>629.893403484314</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D46" t="n">
-        <v>479.7767640719783</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E46" t="n">
-        <v>331.8636704895852</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F46" t="n">
-        <v>184.9737229916748</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7833,25 +7833,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1866.513008862232</v>
+        <v>1705.413341219528</v>
       </c>
       <c r="T46" t="n">
-        <v>1644.746393431758</v>
+        <v>1705.413341219528</v>
       </c>
       <c r="U46" t="n">
-        <v>1355.643526557401</v>
+        <v>1416.310474345171</v>
       </c>
       <c r="V46" t="n">
-        <v>1100.959038351514</v>
+        <v>1161.625986139284</v>
       </c>
       <c r="W46" t="n">
-        <v>811.5418683145538</v>
+        <v>872.2088161023238</v>
       </c>
       <c r="X46" t="n">
-        <v>811.5418683145538</v>
+        <v>644.2192652043065</v>
       </c>
       <c r="Y46" t="n">
-        <v>811.5418683145538</v>
+        <v>423.4266860607763</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747122</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,25 +8692,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>161.8544041422874</v>
+        <v>201.9664098701116</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>295.4822118493972</v>
+        <v>29.61882225792044</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9166,25 +9166,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>128.7323010770068</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>316.9032015413803</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>288.0478149561023</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>132.9990175570123</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9637,22 +9637,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M23" t="n">
-        <v>105.1996354507088</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>351.4175304294029</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10111,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>7.630896635343902</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10357,22 +10357,22 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>71.00061210864408</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,28 +10588,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>116.5656919961586</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,10 +10825,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,16 +10837,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>148.4180109385407</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11062,28 +11062,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>116.5656919961579</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11299,28 +11299,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>1.01747575565679</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23421,16 +23421,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>72.9050317420858</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>10.4013937886736</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23670,10 +23670,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>166.3497438692347</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>86.2551886583569</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T22" t="n">
-        <v>187.4309422322286</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>23.99097675699562</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>25.1264313852688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>103.1003497894882</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24618,7 +24618,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>56.73638528111128</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>128.3871439619993</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>241.1046026619163</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>131.0116390352702</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>8.320366679270677</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,19 +25365,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>136.4732845264155</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25599,16 +25599,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>58.41533301335963</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>56.97874979436187</v>
+        <v>42.59816697291254</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>77.50724660118065</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>30.28035436516501</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>775282.08915268</v>
+        <v>775282.0891526799</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>775282.08915268</v>
+        <v>775282.0891526799</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>775282.08915268</v>
+        <v>775282.0891526799</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>775282.08915268</v>
+        <v>775282.0891526799</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>775282.0891526799</v>
+        <v>775282.08915268</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>775282.0891526798</v>
+        <v>775282.0891526799</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>775282.08915268</v>
+        <v>775282.0891526799</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
-        <v>635330.8590191728</v>
+        <v>635330.859019173</v>
       </c>
       <c r="F2" t="n">
         <v>635330.8590191728</v>
       </c>
       <c r="G2" t="n">
-        <v>635330.8590191728</v>
+        <v>635330.8590191726</v>
       </c>
       <c r="H2" t="n">
-        <v>635330.8590191727</v>
+        <v>635330.859019173</v>
       </c>
       <c r="I2" t="n">
-        <v>635330.859019173</v>
+        <v>635330.8590191731</v>
       </c>
       <c r="J2" t="n">
-        <v>635330.8590191728</v>
+        <v>635330.8590191731</v>
       </c>
       <c r="K2" t="n">
         <v>635330.8590191728</v>
       </c>
       <c r="L2" t="n">
+        <v>635330.8590191727</v>
+      </c>
+      <c r="M2" t="n">
+        <v>635330.8590191728</v>
+      </c>
+      <c r="N2" t="n">
+        <v>635330.8590191727</v>
+      </c>
+      <c r="O2" t="n">
         <v>635330.859019173</v>
       </c>
-      <c r="M2" t="n">
-        <v>635330.859019173</v>
-      </c>
-      <c r="N2" t="n">
-        <v>635330.8590191728</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>635330.8590191727</v>
-      </c>
-      <c r="P2" t="n">
-        <v>635330.8590191728</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>192206.5963924298</v>
+      </c>
+      <c r="C4" t="n">
         <v>192206.5963924297</v>
-      </c>
-      <c r="C4" t="n">
-        <v>192206.5963924298</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709184</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="F4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="H4" t="n">
         <v>21619.60799709186</v>
       </c>
-      <c r="G4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21619.60799709187</v>
-      </c>
       <c r="I4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="J4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709182</v>
       </c>
       <c r="K4" t="n">
         <v>21619.60799709187</v>
@@ -26450,16 +26450,16 @@
         <v>21619.60799709186</v>
       </c>
       <c r="M4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="O4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709186</v>
       </c>
     </row>
     <row r="5">
@@ -26508,10 +26508,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-208200.1377789571</v>
+        <v>-208200.1377789568</v>
       </c>
       <c r="C6" t="n">
-        <v>381767.7414355875</v>
+        <v>381767.7414355872</v>
       </c>
       <c r="D6" t="n">
-        <v>381767.7414355873</v>
+        <v>381767.7414355874</v>
       </c>
       <c r="E6" t="n">
-        <v>-210049.6812250394</v>
+        <v>-210721.6361272972</v>
       </c>
       <c r="F6" t="n">
-        <v>517327.7327683676</v>
+        <v>516655.7778661094</v>
       </c>
       <c r="G6" t="n">
-        <v>517327.7327683674</v>
+        <v>516655.7778661092</v>
       </c>
       <c r="H6" t="n">
-        <v>517327.7327683673</v>
+        <v>516655.7778661096</v>
       </c>
       <c r="I6" t="n">
-        <v>517327.7327683674</v>
+        <v>516655.7778661097</v>
       </c>
       <c r="J6" t="n">
-        <v>340904.5135757744</v>
+        <v>340232.5586735167</v>
       </c>
       <c r="K6" t="n">
-        <v>517327.7327683674</v>
+        <v>516655.7778661094</v>
       </c>
       <c r="L6" t="n">
-        <v>517327.7327683675</v>
+        <v>516655.7778661093</v>
       </c>
       <c r="M6" t="n">
-        <v>387685.4179294226</v>
+        <v>387013.4630271645</v>
       </c>
       <c r="N6" t="n">
-        <v>517327.7327683673</v>
+        <v>516655.7778661093</v>
       </c>
       <c r="O6" t="n">
-        <v>517327.7327683672</v>
+        <v>516655.7778661096</v>
       </c>
       <c r="P6" t="n">
-        <v>517327.7327683673</v>
+        <v>516655.7778661093</v>
       </c>
     </row>
   </sheetData>
@@ -26740,13 +26740,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762118</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>10.27808817397494</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>85.34635367328912</v>
       </c>
     </row>
     <row r="3">
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>57.3029167291576</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27590,7 +27590,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>191.5263635119693</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>270.799580564047</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>205.3403314578115</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>20.57645329849132</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>15.93318254099023</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>137.2211920351234</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,13 +28016,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>59.54933966209474</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>156.9435103820778</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33025,7 +33025,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33265,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33280,7 +33280,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
@@ -33499,7 +33499,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33736,7 +33736,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33754,7 +33754,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
@@ -34213,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34447,7 +34447,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>54.37527471535621</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427827</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>700.7755199725143</v>
+        <v>740.8875257003384</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597718</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>751.0723262417293</v>
+        <v>485.2089366502526</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35886,28 +35886,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>465.9235876324071</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509644</v>
+        <v>824.9562024295994</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>625.2391015115028</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>685.3008529699235</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597769</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,22 +36357,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M23" t="n">
-        <v>644.1207512809356</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36381,7 +36381,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>890.3386462596296</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>344.8221831907444</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -36913,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -36928,7 +36928,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265652</v>
@@ -37077,22 +37077,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>623.3024475215556</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597718</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37308,28 +37308,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>668.8675274090701</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37402,7 +37402,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37545,10 +37545,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37557,16 +37557,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>399.2123157422602</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>453.7569785515583</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>338.2087623110573</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597718</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2790127.052840007</v>
+        <v>2793532.543964457</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.58283624</v>
+        <v>6654055.582836239</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>89.13104591741157</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>98.86797211263773</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>153.9654359881718</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>11.10798889984626</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1071,7 +1071,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>59.66385641544528</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>397.8509874798048</v>
+        <v>276.4313245027208</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>89.06613335611762</v>
+        <v>43.86617416758086</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>8.22995429174169</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>275.8104444169393</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.921725653453</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.15652898566618</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2481,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>140.8993768737594</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2535,13 +2535,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>10.20389322926684</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>64.14647130913964</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2769,7 +2769,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>13.89072837997169</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>78.44407739678171</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>45.10723554369662</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>127.3165365479907</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.921725653454</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>136.4346482350501</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3711,7 +3711,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>84.69473660442847</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3720,7 +3720,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>147.0633545968146</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>257.1828947285546</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>183.1114884161246</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>36.15999212057524</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>159.4886709662769</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4418,16 +4418,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>470.7225141620388</v>
+        <v>470.722514162039</v>
       </c>
       <c r="C4" t="n">
-        <v>470.7225141620388</v>
+        <v>470.722514162039</v>
       </c>
       <c r="D4" t="n">
-        <v>470.7225141620388</v>
+        <v>470.722514162039</v>
       </c>
       <c r="E4" t="n">
-        <v>380.6911546495019</v>
+        <v>322.8094205796459</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>322.8094205796459</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>153.8096203179783</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X4" t="n">
-        <v>470.7225141620388</v>
+        <v>470.722514162039</v>
       </c>
       <c r="Y4" t="n">
-        <v>470.7225141620388</v>
+        <v>470.722514162039</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1359.546482223454</v>
+        <v>1097.103316533935</v>
       </c>
       <c r="C5" t="n">
-        <v>990.5839652830421</v>
+        <v>728.1407995935235</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762915</v>
+        <v>369.875100986773</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>369.875100986773</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>362.9296002375696</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2509.751412524467</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2509.751412524467</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2509.751412524467</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2509.751412524467</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>2136.285654263387</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y5" t="n">
-        <v>1746.146322287575</v>
+        <v>1483.703156598057</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2307.009759042411</v>
+        <v>1857.168914859137</v>
       </c>
       <c r="C8" t="n">
-        <v>1938.047242101999</v>
+        <v>1488.206397918725</v>
       </c>
       <c r="D8" t="n">
-        <v>1579.781543495249</v>
+        <v>1129.940699311975</v>
       </c>
       <c r="E8" t="n">
-        <v>1193.993290897004</v>
+        <v>744.1524467137303</v>
       </c>
       <c r="F8" t="n">
-        <v>783.0073861073968</v>
+        <v>333.1665419241228</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y8" t="n">
-        <v>2307.009759042411</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="9">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>438.7118141694736</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C10" t="n">
-        <v>438.7118141694736</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694736</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X10" t="n">
-        <v>438.7118141694736</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.7118141694736</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1732.058578925876</v>
       </c>
       <c r="M11" t="n">
-        <v>2216.257005193956</v>
+        <v>2265.590483597801</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420603</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107236</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390118</v>
@@ -5153,7 +5153,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>412.4103109586945</v>
+        <v>401.9038525862967</v>
       </c>
       <c r="C13" t="n">
-        <v>243.4741280307875</v>
+        <v>401.9038525862967</v>
       </c>
       <c r="D13" t="n">
-        <v>243.4741280307875</v>
+        <v>251.787213173961</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839441</v>
+        <v>103.8741195915678</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839441</v>
+        <v>103.8741195915678</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5232,19 +5232,19 @@
         <v>1644.746393431758</v>
       </c>
       <c r="U13" t="n">
-        <v>1366.149984929799</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V13" t="n">
-        <v>1111.465496723912</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W13" t="n">
-        <v>822.0483266869516</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="X13" t="n">
-        <v>594.0587757889342</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="Y13" t="n">
-        <v>594.0587757889342</v>
+        <v>583.5523174165364</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5275,7 +5275,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
         <v>451.8458144277729</v>
@@ -5284,46 +5284,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1586.925993846823</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2120.457898518747</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>2667.23671557753</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906984</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.55645335393</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5348,13 +5348,13 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839441</v>
+        <v>506.832110204571</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839441</v>
+        <v>337.8959272766641</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839441</v>
+        <v>337.8959272766641</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839441</v>
+        <v>337.8959272766641</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839441</v>
+        <v>337.8959272766641</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>725.9916293201816</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="X16" t="n">
-        <v>498.0020784221642</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.2094992786341</v>
+        <v>688.4805750348107</v>
       </c>
     </row>
     <row r="17">
@@ -5494,13 +5494,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
         <v>850.213983755162</v>
@@ -5512,49 +5512,49 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1650.184003770974</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2183.715908442899</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>2730.494725501681</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>3547.201365906984</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5627,7 +5627,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5700,10 +5700,10 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
         <v>1270.093287563029</v>
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1070.832524924161</v>
+        <v>750.1800661608906</v>
       </c>
       <c r="L20" t="n">
-        <v>1521.86673817257</v>
+        <v>1614.698881814245</v>
       </c>
       <c r="M20" t="n">
-        <v>2055.398642844494</v>
+        <v>2593.249184644074</v>
       </c>
       <c r="N20" t="n">
-        <v>2602.177459903276</v>
+        <v>3573.001456870721</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
         <v>4778.05172241972</v>
@@ -5785,19 +5785,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5864,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="23">
@@ -5968,25 +5968,25 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001593</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
         <v>451.8458144277729</v>
@@ -5995,40 +5995,40 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1898.858917622687</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2432.390822294612</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>2979.169639353394</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>554.7329138614817</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C25" t="n">
-        <v>385.7967309335748</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D25" t="n">
-        <v>385.7967309335748</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E25" t="n">
-        <v>237.8836373511817</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F25" t="n">
-        <v>237.8836373511817</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6174,25 +6174,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V25" t="n">
-        <v>1253.788099626699</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W25" t="n">
-        <v>964.3709295897388</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X25" t="n">
-        <v>736.3813786917215</v>
+        <v>891.0653626991802</v>
       </c>
       <c r="Y25" t="n">
-        <v>736.3813786917215</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
@@ -6244,34 +6244,34 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>307.2453974100822</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C28" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1439.029470490936</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208126</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838521</v>
+        <v>894.9278122480885</v>
       </c>
       <c r="X28" t="n">
-        <v>709.6864413838521</v>
+        <v>666.9382613500711</v>
       </c>
       <c r="Y28" t="n">
-        <v>488.8938622403219</v>
+        <v>446.145682206541</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
         <v>451.8458144277729</v>
@@ -6469,46 +6469,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1898.858917622688</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M29" t="n">
-        <v>2432.390822294613</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N29" t="n">
-        <v>2979.169639353395</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6563,7 +6563,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6572,16 +6572,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X30" t="n">
         <v>1346.568408282342</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>414.6138567886371</v>
+        <v>754.9793597803102</v>
       </c>
       <c r="C31" t="n">
-        <v>245.6776738607302</v>
+        <v>586.0431768524033</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6651,22 +6651,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U31" t="n">
-        <v>1407.497645073032</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V31" t="n">
-        <v>1152.813156867145</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="W31" t="n">
-        <v>863.3959868301845</v>
+        <v>1385.409954652097</v>
       </c>
       <c r="X31" t="n">
-        <v>635.4064359321671</v>
+        <v>1157.42040375408</v>
       </c>
       <c r="Y31" t="n">
-        <v>414.6138567886371</v>
+        <v>936.62782461055</v>
       </c>
     </row>
     <row r="32">
@@ -6679,22 +6679,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839441</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6782,10 +6782,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839441</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W34" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0020784221642</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>263.2638710736754</v>
       </c>
     </row>
     <row r="35">
@@ -6928,10 +6928,10 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
@@ -6943,13 +6943,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
         <v>3482.142110232732</v>
@@ -7019,10 +7019,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>817.4551465905729</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>648.518963662666</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>498.4023242503303</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>498.4023242503303</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>498.4023242503303</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>330.6994876250492</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7125,22 +7125,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U37" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>999.1036114208126</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>999.1036114208126</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>999.1036114208126</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
@@ -7159,16 +7159,16 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
@@ -7180,13 +7180,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
         <v>3482.142110232732</v>
@@ -7204,22 +7204,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
@@ -7256,7 +7256,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
         <v>794.2006632320243</v>
@@ -7271,22 +7271,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7359,13 +7359,13 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U40" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
         <v>1015.408799357142</v>
@@ -7405,7 +7405,7 @@
         <v>435.1415336001583</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839441</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>411.3871648742116</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C43" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D43" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E43" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G43" t="n">
         <v>95.56103444839441</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U43" t="n">
-        <v>1542.890966501056</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="V43" t="n">
-        <v>1288.206478295169</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W43" t="n">
-        <v>998.7893082582084</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X43" t="n">
-        <v>813.8282088479815</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y43" t="n">
-        <v>593.0356297044514</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="44">
@@ -7651,16 +7651,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L44" t="n">
-        <v>1898.858917622687</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M44" t="n">
-        <v>2432.390822294612</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N44" t="n">
-        <v>2979.169639353394</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O44" t="n">
         <v>3482.142110232731</v>
@@ -7730,10 +7730,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>241.7782212305366</v>
+        <v>301.0224619425389</v>
       </c>
       <c r="C46" t="n">
-        <v>241.7782212305366</v>
+        <v>132.086279014632</v>
       </c>
       <c r="D46" t="n">
-        <v>241.7782212305366</v>
+        <v>132.086279014632</v>
       </c>
       <c r="E46" t="n">
-        <v>241.7782212305366</v>
+        <v>132.086279014632</v>
       </c>
       <c r="F46" t="n">
-        <v>241.7782212305366</v>
+        <v>132.086279014632</v>
       </c>
       <c r="G46" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
         <v>95.56103444839441</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1705.413341219528</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1705.413341219528</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U46" t="n">
-        <v>1416.310474345171</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V46" t="n">
-        <v>1161.625986139284</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W46" t="n">
-        <v>872.2088161023238</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="X46" t="n">
-        <v>644.2192652043065</v>
+        <v>703.4635059163088</v>
       </c>
       <c r="Y46" t="n">
-        <v>423.4266860607763</v>
+        <v>482.6709267727787</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>176.2173930448433</v>
       </c>
       <c r="M11" t="n">
-        <v>201.9664098701116</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8932,13 +8932,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>29.61882225792044</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9166,10 +9166,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>316.9032015413803</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>288.0478149561023</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>344.7025836476828</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10591,16 +10591,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>344.7025836476838</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10828,16 +10828,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>344.7025836476838</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11299,19 +11299,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>344.7025836476828</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>219.3344627260153</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>157.7958539672865</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>10.4013937886736</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>70.86927927336204</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>25.1264313852688</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24414,7 +24414,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>215.5057621597703</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>103.1003497894882</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>272.3211098256412</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>70.17139562143065</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>241.1046026619163</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>91.26811680410414</v>
       </c>
     </row>
     <row r="35">
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>8.320366679270677</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25797,10 +25797,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>29.02894347705831</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>42.59816697291254</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>129.865816138453</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>30.28035436516501</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>775282.0891526799</v>
+        <v>775282.08915268</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>775282.0891526798</v>
+        <v>775282.0891526799</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>775282.0891526799</v>
+        <v>775282.08915268</v>
       </c>
     </row>
     <row r="13">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
+        <v>656833.4158914267</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914264</v>
-      </c>
-      <c r="D2" t="n">
-        <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
         <v>635330.859019173</v>
       </c>
       <c r="F2" t="n">
+        <v>635330.8590191731</v>
+      </c>
+      <c r="G2" t="n">
         <v>635330.8590191728</v>
       </c>
-      <c r="G2" t="n">
-        <v>635330.8590191726</v>
-      </c>
       <c r="H2" t="n">
-        <v>635330.859019173</v>
+        <v>635330.8590191727</v>
       </c>
       <c r="I2" t="n">
-        <v>635330.8590191731</v>
+        <v>635330.8590191728</v>
       </c>
       <c r="J2" t="n">
-        <v>635330.8590191731</v>
+        <v>635330.8590191728</v>
       </c>
       <c r="K2" t="n">
         <v>635330.8590191728</v>
       </c>
       <c r="L2" t="n">
-        <v>635330.8590191727</v>
+        <v>635330.8590191731</v>
       </c>
       <c r="M2" t="n">
         <v>635330.8590191728</v>
@@ -26352,10 +26352,10 @@
         <v>635330.8590191727</v>
       </c>
       <c r="O2" t="n">
-        <v>635330.859019173</v>
+        <v>635330.8590191726</v>
       </c>
       <c r="P2" t="n">
-        <v>635330.8590191727</v>
+        <v>635330.8590191728</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
@@ -26429,22 +26429,22 @@
         <v>21619.60799709187</v>
       </c>
       <c r="F4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21619.60799709182</v>
+      </c>
+      <c r="H4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="K4" t="n">
         <v>21619.60799709186</v>
-      </c>
-      <c r="I4" t="n">
-        <v>21619.60799709186</v>
-      </c>
-      <c r="J4" t="n">
-        <v>21619.60799709182</v>
-      </c>
-      <c r="K4" t="n">
-        <v>21619.60799709187</v>
       </c>
       <c r="L4" t="n">
         <v>21619.60799709186</v>
@@ -26453,13 +26453,13 @@
         <v>21619.60799709187</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709183</v>
       </c>
       <c r="O4" t="n">
         <v>21619.60799709186</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-208200.1377789568</v>
+        <v>-208200.1377789572</v>
       </c>
       <c r="C6" t="n">
+        <v>381767.7414355875</v>
+      </c>
+      <c r="D6" t="n">
         <v>381767.7414355872</v>
       </c>
-      <c r="D6" t="n">
-        <v>381767.7414355874</v>
-      </c>
       <c r="E6" t="n">
-        <v>-210721.6361272972</v>
+        <v>-210116.876715265</v>
       </c>
       <c r="F6" t="n">
-        <v>516655.7778661094</v>
+        <v>517260.5372781418</v>
       </c>
       <c r="G6" t="n">
-        <v>516655.7778661092</v>
+        <v>517260.5372781415</v>
       </c>
       <c r="H6" t="n">
-        <v>516655.7778661096</v>
+        <v>517260.5372781414</v>
       </c>
       <c r="I6" t="n">
-        <v>516655.7778661097</v>
+        <v>517260.5372781415</v>
       </c>
       <c r="J6" t="n">
-        <v>340232.5586735167</v>
+        <v>340837.3180855487</v>
       </c>
       <c r="K6" t="n">
-        <v>516655.7778661094</v>
+        <v>517260.5372781416</v>
       </c>
       <c r="L6" t="n">
-        <v>516655.7778661093</v>
+        <v>517260.5372781418</v>
       </c>
       <c r="M6" t="n">
-        <v>387013.4630271645</v>
+        <v>387618.2224391967</v>
       </c>
       <c r="N6" t="n">
-        <v>516655.7778661093</v>
+        <v>517260.5372781414</v>
       </c>
       <c r="O6" t="n">
-        <v>516655.7778661096</v>
+        <v>517260.5372781414</v>
       </c>
       <c r="P6" t="n">
-        <v>516655.7778661093</v>
+        <v>517260.5372781416</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>57.3029167291576</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>57.30291672915742</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27627,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>259.8187340326232</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>205.3403314578115</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>96.50703242634987</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>15.93318254099023</v>
+        <v>137.3528455180742</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>59.54933966209474</v>
+        <v>104.7492988506315</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-1.125499693443999e-12</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32314,7 +32314,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -33028,7 +33028,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33265,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33499,7 +33499,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33517,7 +33517,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33736,7 +33736,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33754,7 +33754,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
@@ -33973,7 +33973,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34447,7 +34447,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>631.8075074371754</v>
       </c>
       <c r="M11" t="n">
-        <v>740.8875257003384</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597718</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
@@ -35652,13 +35652,13 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>485.2089366502526</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>581.9206576708328</v>
       </c>
       <c r="O14" t="n">
         <v>888.8531821509645</v>
@@ -35886,10 +35886,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -35898,7 +35898,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>824.9562024295994</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
@@ -35907,7 +35907,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>625.2391015115028</v>
+        <v>470.4443441954251</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>800.292698040015</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36372,7 +36372,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36609,7 +36609,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36676,7 +36676,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>800.2926980400159</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36913,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597718</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37165,7 +37165,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37311,7 +37311,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
@@ -37320,7 +37320,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37402,7 +37402,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37548,7 +37548,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37557,7 +37557,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>800.292698040015</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>727.3874636142344</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597718</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
